--- a/metrics/R2/Macroalbuminuria.xlsx
+++ b/metrics/R2/Macroalbuminuria.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9945492596400853</v>
+        <v>0.9948644737664785</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9946294776010822</v>
+        <v>0.9948706811880587</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9946993513767426</v>
+        <v>0.9949483789308121</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.9964251009341101</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.9960804471609069</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.9964251009341101</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.9964251009341101</v>
+        <v>0.9960804471609069</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9855534215173791</v>
+        <v>0.9860411958602002</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9835515613476131</v>
+        <v>0.9849452547299317</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9862819862892627</v>
+        <v>0.9836006454923457</v>
       </c>
     </row>
   </sheetData>
